--- a/report_rezultatov.xlsx
+++ b/report_rezultatov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomanaPC\Documents\GitHub\Magisterska_naloga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50967BED-F95E-4132-9A21-2E12EE6DE45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD92122-D0D2-0743-8B52-0935196A8422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="6860" yWindow="3600" windowWidth="34560" windowHeight="20360" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -489,24 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -515,88 +497,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Dobro" xfId="1" builtinId="26"/>
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,10 +611,1002 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>ROUGE-L rezultat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>List1!$E$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Transformers</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Google Cloud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AWS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$E$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30619000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33034000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF57-4E46-B089-D3E1258FDA65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="556011424"/>
+        <c:axId val="556013152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556011424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556013152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556013152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556011424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523D1776-3160-CCD2-BE75-3DEB83F11AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -652,7 +1644,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -758,7 +1750,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -908,361 +1900,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C6375-E179-457B-8079-F11912284CFE}">
-  <dimension ref="C2:H24"/>
+  <dimension ref="C2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="12" t="s">
+    <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <v>0.92</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="44">
         <v>0.95369999999999999</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="15">
         <v>0.85780000000000001</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="55" t="s">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C5" s="55"/>
+      <c r="D5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>0.95299999999999996</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="13">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="45">
         <v>0.96140000000000003</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <v>0.82379999999999998</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="4"/>
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="56"/>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <f>(2*E4*E5)/(E4+E5)</f>
         <v>0.95099579390115663</v>
       </c>
-      <c r="F6" s="57">
-        <f t="shared" ref="F6:H6" si="0">(2*F4*F5)/(F4+F5)</f>
+      <c r="F6" s="51">
+        <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="46">
         <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.95753452039058018</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <f>(2*H4*H5)/(H4+H5)</f>
         <v>0.84045627973358705</v>
       </c>
+      <c r="K6">
+        <v>0.95099999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="52">
         <v>0.8</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="47">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="14">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="15">
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
-      <c r="D8" s="13" t="s">
+    <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="58"/>
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="31">
         <v>0.79900000000000004</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="12">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <v>0.89129999999999998</v>
       </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="7"/>
-      <c r="D9" s="14" t="s">
+    <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="32">
         <f>(2*E7*E8)/(E7+E8)</f>
         <v>0.79949968730456533</v>
       </c>
-      <c r="F9" s="42">
-        <f t="shared" ref="F9:H9" si="1">(2*F7*F8)/(F7+F8)</f>
+      <c r="F9" s="36">
+        <f t="shared" ref="F9:G9" si="0">(2*F7*F8)/(F7+F8)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="18">
         <f>(2*H7*H8)/(H7+H8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="42">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <v>0.42948999999999998</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>0.42620999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
-      <c r="D11" s="13" t="s">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="58"/>
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="43">
         <v>0.19</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>0.20815</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="17">
         <v>0.21983</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="59"/>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="33">
         <v>0.1918</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="23">
         <v>0.30619000000000002</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="24">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="19">
         <v>0.33034000000000002</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="30">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="15">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="2">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="34">
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="13" t="s">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="58"/>
+      <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="31">
         <v>0.57250000000000001</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="17">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="3">
         <v>0.622</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="35">
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="7"/>
-      <c r="D15" s="14" t="s">
+    <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="59"/>
+      <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="32">
         <f>(2*E13*E14)/(E13+E14)</f>
         <v>0.51903313598166534</v>
       </c>
-      <c r="F15" s="43">
-        <f t="shared" ref="F15:H15" si="2">(2*F13*F14)/(F13+F14)</f>
+      <c r="F15" s="37">
+        <f t="shared" ref="F15:H15" si="1">(2*F13*F14)/(F13+F14)</f>
         <v>0.58625593220338978</v>
       </c>
-      <c r="G15" s="39">
-        <f t="shared" si="2"/>
+      <c r="G15" s="33">
+        <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="42">
-        <f t="shared" si="2"/>
+      <c r="H15" s="36">
+        <f>(2*H13*H14)/(H13+H14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="5" t="s">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="39">
         <v>0.92949999999999999</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="15">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="25">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="15">
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="13" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="58"/>
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="40">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="26">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="17">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="7"/>
-      <c r="D18" s="14" t="s">
+    <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="59"/>
+      <c r="D18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="41">
         <f>(2*E16*E17)/(E16+E17)</f>
         <v>0.92774669900296414</v>
       </c>
-      <c r="F18" s="25">
-        <f t="shared" ref="F18:H18" si="3">(2*F16*F17)/(F16+F17)</f>
+      <c r="F18" s="19">
+        <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
         <v>0.90701924134139633</v>
       </c>
-      <c r="G18" s="16">
-        <f t="shared" si="3"/>
+      <c r="G18" s="10">
+        <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="30">
-        <f t="shared" si="3"/>
+      <c r="H18" s="24">
+        <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="27">
         <v>0.96799999999999997</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="38">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="28">
         <v>0.98</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="29">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="59"/>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="53"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="59"/>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="53"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="59"/>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="53"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>17</v>
       </c>
@@ -1277,5 +2277,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>